--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_14-19.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_14-19.xlsx
@@ -95,6 +95,12 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
@@ -123,9 +129,6 @@
   </si>
   <si>
     <t>معجون كلوز اب الصغير</t>
-  </si>
-  <si>
-    <t>15:0</t>
   </si>
   <si>
     <t>Friday, 16 January, 2026 2:19 PM</t>
@@ -1030,13 +1033,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>80.75</v>
+        <v>31</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1048,7 +1051,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1056,17 +1059,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>99</v>
+        <v>80.75</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1074,7 +1077,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1082,17 +1085,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1114,11 +1117,11 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1126,7 +1129,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1134,17 +1137,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1166,45 +1169,71 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" ht="26.25" customHeight="1">
-      <c r="K22" s="10">
-        <v>749.11000000000001</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c t="s" r="B22" s="7">
         <v>39</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c t="s" r="F23" s="12">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c t="s" r="H22" s="8">
+        <v>29</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9">
+        <v>20</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c t="s" r="N22" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="K23" s="10">
+        <v>780.11000000000001</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" ht="17.25" customHeight="1">
+      <c t="s" r="A24" s="11">
         <v>40</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c t="s" r="I23" s="14">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c t="s" r="F24" s="12">
         <v>41</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c t="s" r="I24" s="14">
+        <v>42</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="68">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1266,10 +1295,13 @@
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
